--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -575,7 +575,7 @@
         <v>45932.45949074074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>45184</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45580.34505787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44984</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45895.43939814815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45749</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45169.34751157407</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44984</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>45597</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45848</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45804.6678587963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45596.42497685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45516</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44998</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44883.49158564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>45572</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44887</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45688</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>45835.42688657407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45697.72040509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45749</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>45874.63766203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45884.53554398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45978.51783564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>44316</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45755</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>45755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>46010.65328703704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>45170</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45565</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44843.82278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45670</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>45813</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44743</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44316</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44510</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44316</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45754</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45455.46412037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>46010.42215277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>46057</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45931</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44984</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>45670</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45940.5108912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45952.71653935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45967.57096064815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44778.55710648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44894</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>44278</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45688</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>45485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45881.54024305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>45980.45195601852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>45572</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44843.84256944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45688</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45835.4641087963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45485</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45565</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>45366</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44271</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44278</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45931</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>46010.68505787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45965</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45771.634375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44637</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44309</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45988.55412037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>46006.62581018519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45630</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45072</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44904</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45055</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45072</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>45250</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45151</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44701</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44637</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>45447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45167</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>45366</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45895</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45975.48099537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44900</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>45992.60733796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45931</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>46007.61512731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>46007.65723379629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>46008.34428240741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45965</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45609.69825231482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45006</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44547</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45789.53834490741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45072</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44712</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44904</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>45835.48488425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45868.6211574074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44957</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45875.69826388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45898</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44716</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45931</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>46006.51138888889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44512</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44964</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44946</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44466.34178240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44315.68802083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44487</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44265</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44315.68729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45264</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44306</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45740</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44271</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45688</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45614.55241898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44637</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45575.63767361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45610.4809375</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44395</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>45784.58445601852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45972.49988425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44265</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45749</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44680</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>46048.52958333334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>46056.51855324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44781</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>46057.55797453703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45980</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44957</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44559</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45793.58469907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44532</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>44516</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>44271</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>44398</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44686.48277777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>44267</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>44812</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44487</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44461</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44326</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44855</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44256</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>44502</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44544.72591435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44544</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44395</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44357</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44278.51930555556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>44294</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44487</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44789</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44246</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44578</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44305</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44700</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44784</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44538.62987268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44739.4490162037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44536.94172453704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44536.94177083333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44337</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44729</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44719.56572916666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44909</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44278</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44942</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45518.57418981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45041.48034722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45560.64059027778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44369</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44550</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44531</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44419</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44984.60255787037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45051</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44719.5662037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>44529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45305</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45576.66674768519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45736.5587037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44515</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44908</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44894.47856481482</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>45621.40034722222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45226</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45190</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44998</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44484</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45208</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>45246.92542824074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45037.35443287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45376.58467592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45736.55288194444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45639.57988425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45232</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44278</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45296.43614583334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44789</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45604.49045138889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>44487</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>44903</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>45435.7403125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45586.5008912037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44818</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45800.48087962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45800.4615625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>45800.46927083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45084.47790509259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44894.59936342593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45041</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45610.38560185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45568.44303240741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>45232</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44998</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44998.75266203703</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44306</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45800.55372685185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>45579.91509259259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45595</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45281</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>45266.59711805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44958</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45385.46263888889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45246</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45548.53166666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45385</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44510</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44257</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45263</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>45225.6890625</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44998.73545138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44998.74140046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45579.67354166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45947.62087962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45257.64270833333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44998.73143518518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44903</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45915.69837962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45912.49256944445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45912.49289351852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45912.49420138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45666</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45688</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45916.54578703704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45149.42868055555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45917.53284722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45917.56306712963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>45917.58569444445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>45792</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>45922.69826388889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45134</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>45964.60839120371</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>45923.57418981481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45922.719375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>44886</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45337</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44960</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45924</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44948.98751157407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45890.40737268519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45184.35760416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44349</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45575.64982638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45614</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45596</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45586.50180555556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45931</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45219</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45219</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45933.44865740741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44935.66199074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45485</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45925.65625</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45925.66126157407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45485</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45463</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45936.44934027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45939.48998842593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44854.46388888889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45939.53186342592</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44351</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45939.36626157408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45184.37474537037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45232.47815972222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45943.65641203704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44942.69005787037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45945.39144675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45888.55096064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45888.72116898148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>44946.56012731481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45849</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45849</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45849</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45849.33071759259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45386</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45849</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45891.37998842593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45891.38489583333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45231.54160879629</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45685.44300925926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>44998</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44998</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>44998</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44998.72736111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44243</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45695</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45693.60480324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45863.60643518518</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45863.61373842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45952.39850694445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45244.64202546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45772.57789351852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45957.64819444445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45621.38193287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45954.66291666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45849</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45957.6437037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45582</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45954.65774305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45954.65364583334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45954.66020833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45958.49030092593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44570</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45415</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45874.63773148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44244</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45575.5909837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45127</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45714</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45958.46826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45786</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45813</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45254</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45559</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44998.60261574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>46000.45017361111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45875</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45958.46806712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45961.38105324074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45786</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45875</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45898</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45875</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44510</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>45876.40699074074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>45218</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>45961.39340277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44491</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45964.47275462963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>45616</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>45964.46167824074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>45964.47177083333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>45964.47564814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>45964.59420138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>45965.51078703703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45965.51081018519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45965.70755787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45964.59214120371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45748</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45966.66451388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>45575.59709490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45435.71126157408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45883.43145833333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45967.43244212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>45966.68252314815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>45971.46915509259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>45699.36491898148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45971.42776620371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44354</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45971.4482175926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45971.46741898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>45971.46951388889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45159.61971064815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>45973.67434027778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45975.42577546297</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45159</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45975.57423611111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45974.46935185185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44631</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45975.49930555555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45974.469375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45975.52893518518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>46020.48969907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45979.73390046296</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45712</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45685</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>45978.53459490741</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44928</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>46020.4169212963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>46020.49924768518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45979.74055555555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45981.34545138889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45981.53217592592</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44946</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45236.65784722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>45560.67542824074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>45981.34583333333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33882,7 +33882,7 @@
         <v>45980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>45985.60774305555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45982.44869212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45981.88722222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>45729.45119212963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>44270</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45385</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45987.63885416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>46029.43557870371</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>45987.46554398148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>45987.49034722222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>45604.54693287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>45645.449375</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44628</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45575.40700231482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34824,7 +34824,7 @@
         <v>45989.44711805556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>45772.56753472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>45987.81232638889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>44456</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45988.55300925926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45560.66037037037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>45992.64878472222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35280,7 +35280,7 @@
         <v>45604.48304398148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45992.48541666667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>45992.43616898148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>45992.44748842593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35508,7 +35508,7 @@
         <v>45401.49065972222</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>46034.45974537037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35622,7 +35622,7 @@
         <v>45734.62666666666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45614.70510416666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45091.31304398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45091.31530092593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44644</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>44251</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35974,7 +35974,7 @@
         <v>46037.42578703703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45548.53193287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>46036.3758912037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>45995.3990162037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45995.57738425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>45636</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>45996.33314814815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>45999</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>45439.30988425926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>45000</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45999.39971064815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>45595</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44637</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>46038.66943287037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45455.44194444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45931</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44538</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45999.89533564815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>45616</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44977</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>45586.48003472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44309</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>46042.37641203704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>46001.39805555555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44946</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45244</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45999.87188657407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45219.57061342592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45401.49361111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45387</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44552</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>46003.64273148148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>46007.63630787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>46006.58048611111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>46006.61553240741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>46006.54729166667</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>46006</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>46007.61498842593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>46007.61506944444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>46006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>46006.5666087963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>46007.63618055556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44783</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>46009.59424768519</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45518.59618055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45548.6934837963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>46052.41568287037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>46054.81873842593</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>46013.42751157407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>44598.64403935185</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45355</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>46010.49605324074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>45712</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>46055.43142361111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>45945</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>45922</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44781</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44946</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>45908</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45999</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45968</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>45985</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39801,7 +39801,7 @@
         <v>45992</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>46048</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39925,7 +39925,7 @@
         <v>44252</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39982,7 +39982,7 @@
         <v>44893</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40044,7 +40044,7 @@
         <v>44917</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>45391</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45187</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>45981.59471064815</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         <v>44419</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>46050</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         <v>46058.34428240741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40443,7 +40443,7 @@
         <v>46058.64458333333</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>44970</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40562,7 +40562,7 @@
         <v>45574.51212962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40619,7 +40619,7 @@
         <v>45184.36697916667</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>45184</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>44874</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44905</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>44830</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>44874.48167824074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>44883.36125</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41038,7 +41038,7 @@
         <v>44334</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41095,7 +41095,7 @@
         <v>45126</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44496</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>45482.53859953704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>45685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44967</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45568.55114583333</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45385</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45586</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>44803</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45545.59842592593</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45261.46787037037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41742,7 +41742,7 @@
         <v>45261.47321759259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41799,7 +41799,7 @@
         <v>44490</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41856,7 +41856,7 @@
         <v>44482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41913,7 +41913,7 @@
         <v>44419</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41970,7 +41970,7 @@
         <v>45296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45264</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42089,7 +42089,7 @@
         <v>44946</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         <v>44498</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42203,7 +42203,7 @@
         <v>44498</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42260,7 +42260,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42322,7 +42322,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42379,7 +42379,7 @@
         <v>45576</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42436,7 +42436,7 @@
         <v>44930</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42493,7 +42493,7 @@
         <v>45631.43578703704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42550,7 +42550,7 @@
         <v>45616</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42607,7 +42607,7 @@
         <v>45159</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>45150</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42721,7 +42721,7 @@
         <v>44406</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42778,7 +42778,7 @@
         <v>45714.68869212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42835,7 +42835,7 @@
         <v>45576.37496527778</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>44323</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42949,7 +42949,7 @@
         <v>44357</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43006,7 +43006,7 @@
         <v>45303.93322916667</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43068,7 +43068,7 @@
         <v>44496</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>44910</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44489</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>44893.48930555556</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45693.60425925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>44351</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45740.65851851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45519.4495949074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>44998</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45636</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45450.7033912037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45246.34405092592</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>44859</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>44552</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>45491.43815972222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44301</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44784</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45595</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45098</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>44834</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44285,7 +44285,7 @@
         <v>44851</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44342,7 +44342,7 @@
         <v>45254.96476851852</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -44399,7 +44399,7 @@
         <v>45439</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44456,7 +44456,7 @@
         <v>45560.67016203704</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45243.66828703704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44570,7 +44570,7 @@
         <v>44998</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44540</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>45225</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>45233.35863425926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44946.5500925926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>45562.56747685185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44379</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44498</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>45261</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44531</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44911.32092592592</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>45629.35856481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44998.72263888889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45316,7 +45316,7 @@
         <v>45749.4075</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -45373,7 +45373,7 @@
         <v>45254</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45430,7 +45430,7 @@
         <v>45779.41253472222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45487,7 +45487,7 @@
         <v>45779.43696759259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45544,7 +45544,7 @@
         <v>45582</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45601,7 +45601,7 @@
         <v>45595</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45658,7 +45658,7 @@
         <v>44495</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -575,7 +575,7 @@
         <v>45932.45949074074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -760,6 +760,7 @@
 Rynkskinn
 Skuggnål
 Sprickporing
+Ulltickeporing
 Doftskinn
 Gammelgransskål
 Garnlav
@@ -829,7 +830,7 @@
         <v>45184</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +943,7 @@
         <v>45580.34505787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1059,7 @@
         <v>44984</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1169,7 +1170,7 @@
         <v>45895.43939814815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1279,7 +1280,7 @@
         <v>45749</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1380,59 +1381,166 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
+          <t>A 14183-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44278</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Läderlappslav
+Gammelgransskål
+Garnlav
+Granticka
+Harticka
+Leptoporus mollis
+Nordtagging
+Rödbrun blekspik
+Skrovellav
+Talltita
+Tretåig hackspett
+Ullticka
+Vedtrappmossa
+Bårdlav
+Gytterlav
+Skinnlav
+Stuplav
+Vedticka
+Sparvuggla</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/artfynd/A 14183-2021 artfynd.xlsx", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/kartor/A 14183-2021 karta.png", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomål/A 14183-2021 FSC-klagomål.docx", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomålsmail/A 14183-2021 FSC-klagomål mail.docx", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsyn/A 14183-2021 tillsynsbegäran.docx", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsynsmail/A 14183-2021 tillsynsbegäran mail.docx", "A 14183-2021")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2321/fåglar/A 14183-2021 prioriterade fågelarter.docx", "A 14183-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>A 8327-2021</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44244</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>16.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>12</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>18</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Amerikansk sönderfallslav
 Norsk näverlav
@@ -1454,87 +1562,87 @@
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/artfynd/A 8327-2021 artfynd.xlsx", "A 8327-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/kartor/A 8327-2021 karta.png", "A 8327-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomål/A 8327-2021 FSC-klagomål.docx", "A 8327-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomålsmail/A 8327-2021 FSC-klagomål mail.docx", "A 8327-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsyn/A 8327-2021 tillsynsbegäran.docx", "A 8327-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsynsmail/A 8327-2021 tillsynsbegäran mail.docx", "A 8327-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 40143-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45169.34751157407</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>7</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>18</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1556,142 +1664,36 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/artfynd/A 40143-2023 artfynd.xlsx", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/kartor/A 40143-2023 karta.png", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/knärot/A 40143-2023 karta knärot.png", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomål/A 40143-2023 FSC-klagomål.docx", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomålsmail/A 40143-2023 FSC-klagomål mail.docx", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsyn/A 40143-2023 tillsynsbegäran.docx", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsynsmail/A 40143-2023 tillsynsbegäran mail.docx", "A 40143-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2321/fåglar/A 40143-2023 prioriterade fågelarter.docx", "A 40143-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 14183-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44278</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>18</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Liten aspgelélav
-Gammelgransskål
-Garnlav
-Granticka
-Harticka
-Leptoporus mollis
-Nordtagging
-Rödbrun blekspik
-Skrovellav
-Talltita
-Tretåig hackspett
-Ullticka
-Vedtrappmossa
-Bårdlav
-Gytterlav
-Skinnlav
-Stuplav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/artfynd/A 14183-2021 artfynd.xlsx", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/kartor/A 14183-2021 karta.png", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomål/A 14183-2021 FSC-klagomål.docx", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/klagomålsmail/A 14183-2021 FSC-klagomål mail.docx", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsyn/A 14183-2021 tillsynsbegäran.docx", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/tillsynsmail/A 14183-2021 tillsynsbegäran mail.docx", "A 14183-2021")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2321/fåglar/A 14183-2021 prioriterade fågelarter.docx", "A 14183-2021")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1707,7 @@
         <v>44984</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1811,7 +1813,7 @@
         <v>45597</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1916,7 +1918,7 @@
         <v>45848</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2021,7 +2023,7 @@
         <v>45804.6678587963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2125,7 +2127,7 @@
         <v>45596.42497685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2236,7 @@
         <v>45516</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2337,7 +2339,7 @@
         <v>44998</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2439,7 +2441,7 @@
         <v>45385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2541,7 +2543,7 @@
         <v>44515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2643,7 +2645,7 @@
         <v>44883.49158564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2745,7 +2747,7 @@
         <v>45572</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2843,7 +2845,7 @@
         <v>44887</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2945,7 +2947,7 @@
         <v>45688</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3046,7 +3048,7 @@
         <v>45835.42688657407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3151,7 +3153,7 @@
         <v>45697.72040509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3248,7 +3250,7 @@
         <v>45749</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3345,7 +3347,7 @@
         <v>45874.63766203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3450,7 +3452,7 @@
         <v>44278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3550,7 +3552,7 @@
         <v>45572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3646,7 +3648,7 @@
         <v>44487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3741,7 +3743,7 @@
         <v>45884.53554398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3846,7 @@
         <v>45978.51783564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3945,7 @@
         <v>44316</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4041,7 +4043,7 @@
         <v>45755</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4135,7 +4137,7 @@
         <v>45755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4229,7 +4231,7 @@
         <v>46010.65328703704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4327,7 +4329,7 @@
         <v>45170</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4425,7 +4427,7 @@
         <v>45565</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4528,7 +4530,7 @@
         <v>44843.82278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4625,7 +4627,7 @@
         <v>45670</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4718,7 +4720,7 @@
         <v>45813</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4815,7 +4817,7 @@
         <v>44259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4912,7 +4914,7 @@
         <v>44743</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5009,7 +5011,7 @@
         <v>44316</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5105,7 +5107,7 @@
         <v>44510</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5201,7 +5203,7 @@
         <v>44316</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5297,7 +5299,7 @@
         <v>45754</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5389,7 +5391,7 @@
         <v>45455.46412037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5489,7 +5491,7 @@
         <v>46010.42215277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5585,7 +5587,7 @@
         <v>45572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5681,7 +5683,7 @@
         <v>46057</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5773,7 +5775,7 @@
         <v>45931</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5865,7 +5867,7 @@
         <v>44984</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5961,7 +5963,7 @@
         <v>44370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6052,7 +6054,7 @@
         <v>45754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6143,7 +6145,7 @@
         <v>45670</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6234,7 +6236,7 @@
         <v>45940.5108912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6329,7 +6331,7 @@
         <v>45952.71653935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6420,7 +6422,7 @@
         <v>45967.57096064815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6515,7 +6517,7 @@
         <v>44778.55710648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6609,7 +6611,7 @@
         <v>44894</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6708,7 +6710,7 @@
         <v>44278</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6802,7 +6804,7 @@
         <v>45688</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6892,7 +6894,7 @@
         <v>45485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6986,7 +6988,7 @@
         <v>45881.54024305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7080,7 +7082,7 @@
         <v>45980.45195601852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7170,7 +7172,7 @@
         <v>45581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7260,7 +7262,7 @@
         <v>45572</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7350,7 +7352,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7439,7 +7441,7 @@
         <v>44495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7532,7 +7534,7 @@
         <v>44843.84256944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7621,7 +7623,7 @@
         <v>45688</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7714,7 +7716,7 @@
         <v>45835.4641087963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7803,7 +7805,7 @@
         <v>45485</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7892,7 +7894,7 @@
         <v>45565</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7986,7 +7988,7 @@
         <v>45366</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8075,7 +8077,7 @@
         <v>44271</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8164,7 +8166,7 @@
         <v>44278</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8257,7 +8259,7 @@
         <v>45931</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8350,7 +8352,7 @@
         <v>46010.68505787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8448,7 +8450,7 @@
         <v>45959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8542,7 +8544,7 @@
         <v>45965</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8635,7 +8637,7 @@
         <v>45771.634375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8724,7 +8726,7 @@
         <v>44637</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8812,7 +8814,7 @@
         <v>44309</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8900,7 +8902,7 @@
         <v>45988.55412037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8993,7 +8995,7 @@
         <v>46006.62581018519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9085,7 +9087,7 @@
         <v>45630</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9177,7 +9179,7 @@
         <v>44889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9269,7 +9271,7 @@
         <v>45072</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9360,7 +9362,7 @@
         <v>44904</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9451,7 +9453,7 @@
         <v>45055</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9538,7 +9540,7 @@
         <v>45072</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9629,7 +9631,7 @@
         <v>45250</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9720,7 +9722,7 @@
         <v>45651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9811,7 +9813,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9902,7 +9904,7 @@
         <v>45151</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9989,7 +9991,7 @@
         <v>44701</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10080,7 +10082,7 @@
         <v>44637</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10167,7 +10169,7 @@
         <v>45447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10254,7 +10256,7 @@
         <v>45167</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10345,7 +10347,7 @@
         <v>45366</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10432,7 +10434,7 @@
         <v>45895</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10528,7 +10530,7 @@
         <v>44984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10619,7 +10621,7 @@
         <v>45975.48099537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10711,7 +10713,7 @@
         <v>44900</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10802,7 +10804,7 @@
         <v>45992.60733796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10889,7 +10891,7 @@
         <v>45931</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10976,7 +10978,7 @@
         <v>46007.61512731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11072,7 +11074,7 @@
         <v>44259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11163,7 +11165,7 @@
         <v>46007.65723379629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11259,7 +11261,7 @@
         <v>46008.34428240741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11350,7 +11352,7 @@
         <v>45965</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11437,7 +11439,7 @@
         <v>45609.69825231482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11524,7 +11526,7 @@
         <v>44334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11611,7 +11613,7 @@
         <v>45006</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11702,7 +11704,7 @@
         <v>44547</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11789,7 +11791,7 @@
         <v>45789.53834490741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11876,7 +11878,7 @@
         <v>45072</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11966,7 +11968,7 @@
         <v>44712</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12052,7 +12054,7 @@
         <v>44690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12142,7 +12144,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12228,7 +12230,7 @@
         <v>44904</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12318,7 +12320,7 @@
         <v>45835.48488425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12404,7 +12406,7 @@
         <v>45868.6211574074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12494,7 +12496,7 @@
         <v>44957</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12584,7 +12586,7 @@
         <v>45231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12679,7 +12681,7 @@
         <v>45875.69826388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12765,7 +12767,7 @@
         <v>45898</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12860,7 +12862,7 @@
         <v>44716</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12946,7 +12948,7 @@
         <v>45931</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13032,7 +13034,7 @@
         <v>46006.51138888889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13118,7 +13120,7 @@
         <v>45232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13208,7 +13210,7 @@
         <v>44512</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13298,7 +13300,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13384,7 +13386,7 @@
         <v>44957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13474,7 +13476,7 @@
         <v>44446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13564,7 +13566,7 @@
         <v>44964</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13654,7 +13656,7 @@
         <v>44946</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13744,7 +13746,7 @@
         <v>44466.34178240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13834,7 +13836,7 @@
         <v>44315.68802083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13923,7 +13925,7 @@
         <v>44487</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14008,7 +14010,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14093,7 +14095,7 @@
         <v>44265</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14178,7 +14180,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14267,7 +14269,7 @@
         <v>44315.68729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14352,7 +14354,7 @@
         <v>45351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14442,7 +14444,7 @@
         <v>45264</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14527,7 +14529,7 @@
         <v>44306</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14616,7 +14618,7 @@
         <v>45740</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14705,7 +14707,7 @@
         <v>44886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14795,7 +14797,7 @@
         <v>44271</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14880,7 +14882,7 @@
         <v>45688</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14965,7 +14967,7 @@
         <v>45614.55241898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15050,7 +15052,7 @@
         <v>44637</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15135,7 +15137,7 @@
         <v>45575.63767361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15225,7 +15227,7 @@
         <v>45610.4809375</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15310,7 +15312,7 @@
         <v>44395</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15399,7 +15401,7 @@
         <v>45784.58445601852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15484,7 +15486,7 @@
         <v>45485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15569,7 +15571,7 @@
         <v>45972.49988425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15663,7 +15665,7 @@
         <v>44265</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15748,7 +15750,7 @@
         <v>45749</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15833,7 +15835,7 @@
         <v>44680</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15922,7 +15924,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16007,7 +16009,7 @@
         <v>46048.52958333334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16096,7 +16098,7 @@
         <v>46056.51855324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16181,7 +16183,7 @@
         <v>44781</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16270,7 +16272,7 @@
         <v>46057.55797453703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16355,7 +16357,7 @@
         <v>45980</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16440,7 +16442,7 @@
         <v>44957</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16529,7 +16531,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16614,7 +16616,7 @@
         <v>44559</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16699,7 +16701,7 @@
         <v>44984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16788,7 +16790,7 @@
         <v>45793.58469907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16877,7 +16879,7 @@
         <v>44280</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16934,7 +16936,7 @@
         <v>44532</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16991,7 +16993,7 @@
         <v>44516</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17048,7 +17050,7 @@
         <v>44271</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17105,7 +17107,7 @@
         <v>44398</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17162,7 +17164,7 @@
         <v>44686.48277777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17219,7 +17221,7 @@
         <v>44267</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17276,7 +17278,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17333,7 +17335,7 @@
         <v>44812</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17390,7 +17392,7 @@
         <v>44487</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17447,7 +17449,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17504,7 +17506,7 @@
         <v>44461</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -17561,7 +17563,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17618,7 +17620,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17675,7 +17677,7 @@
         <v>44326</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17732,7 +17734,7 @@
         <v>44855</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17789,7 +17791,7 @@
         <v>44256</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17846,7 +17848,7 @@
         <v>44502</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17903,7 +17905,7 @@
         <v>44544.72591435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17960,7 +17962,7 @@
         <v>44544</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18017,7 +18019,7 @@
         <v>44395</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18074,7 +18076,7 @@
         <v>44834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18131,7 +18133,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18188,7 +18190,7 @@
         <v>44357</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18245,7 +18247,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18302,7 +18304,7 @@
         <v>44278.51930555556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18359,7 +18361,7 @@
         <v>44294</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18421,7 +18423,7 @@
         <v>44487</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18478,7 +18480,7 @@
         <v>44789</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18535,7 +18537,7 @@
         <v>44246</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18592,7 +18594,7 @@
         <v>44578</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18649,7 +18651,7 @@
         <v>44305</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18706,7 +18708,7 @@
         <v>44700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18763,7 +18765,7 @@
         <v>44700</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18820,7 +18822,7 @@
         <v>44502</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18882,7 +18884,7 @@
         <v>44784</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18939,7 +18941,7 @@
         <v>44538.62987268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18996,7 +18998,7 @@
         <v>44739.4490162037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19058,7 +19060,7 @@
         <v>44536.94172453704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19115,7 +19117,7 @@
         <v>44536.94177083333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19172,7 +19174,7 @@
         <v>44337</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19229,7 +19231,7 @@
         <v>44729</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19286,7 +19288,7 @@
         <v>44719.56572916666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19343,7 +19345,7 @@
         <v>44909</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19400,7 +19402,7 @@
         <v>44278</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19457,7 +19459,7 @@
         <v>44942</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19514,7 +19516,7 @@
         <v>45518.57418981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -19571,7 +19573,7 @@
         <v>45041.48034722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19628,7 +19630,7 @@
         <v>45560.64059027778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19685,7 +19687,7 @@
         <v>44369</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19742,7 +19744,7 @@
         <v>44550</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19799,7 +19801,7 @@
         <v>44531</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19856,7 +19858,7 @@
         <v>44419</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19913,7 +19915,7 @@
         <v>44984.60255787037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19970,7 +19972,7 @@
         <v>45051</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20027,7 +20029,7 @@
         <v>44719.5662037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20084,7 +20086,7 @@
         <v>44529</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20141,7 +20143,7 @@
         <v>45305</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20198,7 +20200,7 @@
         <v>45576.66674768519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20255,7 +20257,7 @@
         <v>45736.5587037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20317,7 +20319,7 @@
         <v>44515</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20374,7 +20376,7 @@
         <v>44908</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20431,7 +20433,7 @@
         <v>44894.47856481482</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20493,7 +20495,7 @@
         <v>45621.40034722222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -20550,7 +20552,7 @@
         <v>45226</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20612,7 +20614,7 @@
         <v>45190</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20669,7 +20671,7 @@
         <v>44998</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20726,7 +20728,7 @@
         <v>44484</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20783,7 +20785,7 @@
         <v>45208</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20840,7 +20842,7 @@
         <v>45246.92542824074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20897,7 +20899,7 @@
         <v>45037.35443287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20959,7 +20961,7 @@
         <v>45376.58467592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21016,7 +21018,7 @@
         <v>45736.55288194444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21078,7 +21080,7 @@
         <v>45639.57988425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21140,7 +21142,7 @@
         <v>45232</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21197,7 +21199,7 @@
         <v>44278</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21254,7 +21256,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21316,7 +21318,7 @@
         <v>45713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21373,7 +21375,7 @@
         <v>45296.43614583334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21430,7 +21432,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21487,7 +21489,7 @@
         <v>44789</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21544,7 +21546,7 @@
         <v>44706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -21601,7 +21603,7 @@
         <v>45604.49045138889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21658,7 +21660,7 @@
         <v>44487</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21715,7 +21717,7 @@
         <v>44903</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21777,7 +21779,7 @@
         <v>45435.7403125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21834,7 +21836,7 @@
         <v>44889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21891,7 +21893,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21948,7 +21950,7 @@
         <v>45586.5008912037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22005,7 +22007,7 @@
         <v>44818</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22062,7 +22064,7 @@
         <v>45800.48087962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22119,7 +22121,7 @@
         <v>45800.4615625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22176,7 +22178,7 @@
         <v>45800.46927083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22233,7 +22235,7 @@
         <v>45159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22290,7 +22292,7 @@
         <v>45084.47790509259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22347,7 +22349,7 @@
         <v>44894.59936342593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22409,7 +22411,7 @@
         <v>45041</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22466,7 +22468,7 @@
         <v>45610.38560185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22528,7 +22530,7 @@
         <v>45568.44303240741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -22590,7 +22592,7 @@
         <v>45232</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22647,7 +22649,7 @@
         <v>44371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22704,7 +22706,7 @@
         <v>44998</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22761,7 +22763,7 @@
         <v>44998.75266203703</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22818,7 +22820,7 @@
         <v>44306</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22875,7 +22877,7 @@
         <v>45800.55372685185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22932,7 +22934,7 @@
         <v>45579.91509259259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22989,7 +22991,7 @@
         <v>45595</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23046,7 +23048,7 @@
         <v>45281</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23108,7 +23110,7 @@
         <v>45266.59711805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23165,7 +23167,7 @@
         <v>44958</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23222,7 +23224,7 @@
         <v>45385.46263888889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23279,7 +23281,7 @@
         <v>45246</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23336,7 +23338,7 @@
         <v>45548.53166666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23393,7 +23395,7 @@
         <v>45385</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23450,7 +23452,7 @@
         <v>44510</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23507,7 +23509,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -23564,7 +23566,7 @@
         <v>44257</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23621,7 +23623,7 @@
         <v>45263</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23678,7 +23680,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23735,7 +23737,7 @@
         <v>45225.6890625</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23797,7 +23799,7 @@
         <v>45600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23854,7 +23856,7 @@
         <v>44998.73545138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23911,7 +23913,7 @@
         <v>44998.74140046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23968,7 +23970,7 @@
         <v>45579.67354166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24025,7 +24027,7 @@
         <v>45947.62087962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24087,7 +24089,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24144,7 +24146,7 @@
         <v>45257.64270833333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24201,7 +24203,7 @@
         <v>44998.73143518518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24258,7 +24260,7 @@
         <v>44903</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24320,7 +24322,7 @@
         <v>45915.69837962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24377,7 +24379,7 @@
         <v>45912.49256944445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24434,7 +24436,7 @@
         <v>45912.49289351852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24491,7 +24493,7 @@
         <v>45912.49420138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -24548,7 +24550,7 @@
         <v>45666</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -24610,7 +24612,7 @@
         <v>45688</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24667,7 +24669,7 @@
         <v>45916.54578703704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24724,7 +24726,7 @@
         <v>45149.42868055555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24781,7 +24783,7 @@
         <v>45917.53284722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24838,7 +24840,7 @@
         <v>45917.56306712963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24895,7 +24897,7 @@
         <v>45917.58569444445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24952,7 +24954,7 @@
         <v>45792</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25009,7 +25011,7 @@
         <v>45922.69826388889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25066,7 +25068,7 @@
         <v>45134</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25123,7 +25125,7 @@
         <v>45964.60839120371</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25180,7 +25182,7 @@
         <v>45923.57418981481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25237,7 +25239,7 @@
         <v>45922.719375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25294,7 +25296,7 @@
         <v>44886</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25356,7 +25358,7 @@
         <v>45337</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25413,7 +25415,7 @@
         <v>44960</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25470,7 +25472,7 @@
         <v>45924</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25527,7 +25529,7 @@
         <v>44948.98751157407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -25584,7 +25586,7 @@
         <v>45890.40737268519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25641,7 +25643,7 @@
         <v>45184.35760416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25703,7 +25705,7 @@
         <v>44349</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25760,7 +25762,7 @@
         <v>45575.64982638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25817,7 +25819,7 @@
         <v>45614</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25874,7 +25876,7 @@
         <v>45596</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25936,7 +25938,7 @@
         <v>45586.50180555556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25993,7 +25995,7 @@
         <v>45931</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26050,7 +26052,7 @@
         <v>45219</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26107,7 +26109,7 @@
         <v>45219</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26164,7 +26166,7 @@
         <v>45933.44865740741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26226,7 +26228,7 @@
         <v>44935.66199074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26283,7 +26285,7 @@
         <v>45485</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26340,7 +26342,7 @@
         <v>45462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26397,7 +26399,7 @@
         <v>45925.65625</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26454,7 +26456,7 @@
         <v>45925.66126157407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26511,7 +26513,7 @@
         <v>45485</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -26568,7 +26570,7 @@
         <v>45463</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26625,7 +26627,7 @@
         <v>45936.44934027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26682,7 +26684,7 @@
         <v>45939.48998842593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26739,7 +26741,7 @@
         <v>44854.46388888889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26796,7 +26798,7 @@
         <v>45939.53186342592</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26853,7 +26855,7 @@
         <v>44351</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26910,7 +26912,7 @@
         <v>45939.36626157408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26967,7 +26969,7 @@
         <v>45184.37474537037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27029,7 +27031,7 @@
         <v>45232.47815972222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27086,7 +27088,7 @@
         <v>45943.65641203704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27143,7 +27145,7 @@
         <v>44942.69005787037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27200,7 +27202,7 @@
         <v>45945.39144675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27257,7 +27259,7 @@
         <v>45888.55096064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27319,7 +27321,7 @@
         <v>45888.72116898148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27376,7 +27378,7 @@
         <v>44946.56012731481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27433,7 +27435,7 @@
         <v>45849</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27490,7 +27492,7 @@
         <v>45849</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -27547,7 +27549,7 @@
         <v>45849</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -27604,7 +27606,7 @@
         <v>45849.33071759259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27661,7 +27663,7 @@
         <v>45386</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27718,7 +27720,7 @@
         <v>45849</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27775,7 +27777,7 @@
         <v>45891.37998842593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27837,7 +27839,7 @@
         <v>45891.38489583333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27899,7 +27901,7 @@
         <v>45231.54160879629</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27956,7 +27958,7 @@
         <v>45685.44300925926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28018,7 +28020,7 @@
         <v>45085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28075,7 +28077,7 @@
         <v>44998</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28132,7 +28134,7 @@
         <v>44998</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28189,7 +28191,7 @@
         <v>44998</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28246,7 +28248,7 @@
         <v>44998.72736111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28303,7 +28305,7 @@
         <v>44243</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28360,7 +28362,7 @@
         <v>45695</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28417,7 +28419,7 @@
         <v>45693.60480324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28474,7 +28476,7 @@
         <v>45863.60643518518</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -28531,7 +28533,7 @@
         <v>45863.61373842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -28588,7 +28590,7 @@
         <v>45952.39850694445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28650,7 +28652,7 @@
         <v>45244.64202546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28712,7 +28714,7 @@
         <v>45772.57789351852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28769,7 +28771,7 @@
         <v>45957.64819444445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28826,7 +28828,7 @@
         <v>45621.38193287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28883,7 +28885,7 @@
         <v>45954.66291666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28940,7 +28942,7 @@
         <v>45849</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28997,7 +28999,7 @@
         <v>45957.6437037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29054,7 +29056,7 @@
         <v>45582</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29111,7 +29113,7 @@
         <v>45954.65774305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29168,7 +29170,7 @@
         <v>45954.65364583334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29225,7 +29227,7 @@
         <v>45954.66020833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29282,7 +29284,7 @@
         <v>45958.49030092593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29339,7 +29341,7 @@
         <v>44570</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29396,7 +29398,7 @@
         <v>45415</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29453,7 +29455,7 @@
         <v>45874.63773148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -29515,7 +29517,7 @@
         <v>44244</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -29572,7 +29574,7 @@
         <v>45575.5909837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29634,7 +29636,7 @@
         <v>45127</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29691,7 +29693,7 @@
         <v>45714</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29748,7 +29750,7 @@
         <v>45875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29805,7 +29807,7 @@
         <v>45958.46826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29862,7 +29864,7 @@
         <v>45786</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29919,7 +29921,7 @@
         <v>45813</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29976,7 +29978,7 @@
         <v>45254</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30033,7 +30035,7 @@
         <v>45559</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30090,7 +30092,7 @@
         <v>44998.60261574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30147,7 +30149,7 @@
         <v>46000.45017361111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30204,7 +30206,7 @@
         <v>45875</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30261,7 +30263,7 @@
         <v>45958.46806712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30318,7 +30320,7 @@
         <v>45961.38105324074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30375,7 +30377,7 @@
         <v>45786</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30432,7 +30434,7 @@
         <v>45875</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -30489,7 +30491,7 @@
         <v>45898</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -30551,7 +30553,7 @@
         <v>45875</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30608,7 +30610,7 @@
         <v>44510</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30665,7 +30667,7 @@
         <v>44482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30722,7 +30724,7 @@
         <v>45876.40699074074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30779,7 +30781,7 @@
         <v>45218</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30836,7 +30838,7 @@
         <v>45961.39340277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30893,7 +30895,7 @@
         <v>44491</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30955,7 +30957,7 @@
         <v>45964.47275462963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31012,7 +31014,7 @@
         <v>45616</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31069,7 +31071,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31126,7 +31128,7 @@
         <v>45964.46167824074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31183,7 +31185,7 @@
         <v>45964.47177083333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31240,7 +31242,7 @@
         <v>45964.47564814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31297,7 +31299,7 @@
         <v>45964.59420138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31359,7 +31361,7 @@
         <v>45965.51078703703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31416,7 +31418,7 @@
         <v>45965.51081018519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -31473,7 +31475,7 @@
         <v>45965.70755787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -31530,7 +31532,7 @@
         <v>45964.59214120371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31587,7 +31589,7 @@
         <v>45748</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31644,7 +31646,7 @@
         <v>45966.66451388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31701,7 +31703,7 @@
         <v>45575.59709490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31758,7 +31760,7 @@
         <v>45435.71126157408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31815,7 +31817,7 @@
         <v>45883.43145833333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31872,7 +31874,7 @@
         <v>45967.43244212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31929,7 +31931,7 @@
         <v>45966.68252314815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31986,7 +31988,7 @@
         <v>45971.46915509259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32043,7 +32045,7 @@
         <v>45699.36491898148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32100,7 +32102,7 @@
         <v>45971.42776620371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32157,7 +32159,7 @@
         <v>44354</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32214,7 +32216,7 @@
         <v>45971.4482175926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32271,7 +32273,7 @@
         <v>45971.46741898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32328,7 +32330,7 @@
         <v>45971.46951388889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32385,7 +32387,7 @@
         <v>45159.61971064815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -32442,7 +32444,7 @@
         <v>45973.67434027778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32499,7 +32501,7 @@
         <v>45975.42577546297</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32556,7 +32558,7 @@
         <v>45159</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32613,7 +32615,7 @@
         <v>45975.57423611111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32670,7 +32672,7 @@
         <v>45974.46935185185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32727,7 +32729,7 @@
         <v>44631</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32784,7 +32786,7 @@
         <v>45975.49930555555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32841,7 +32843,7 @@
         <v>45974.469375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32898,7 +32900,7 @@
         <v>45975.52893518518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32955,7 +32957,7 @@
         <v>46020.48969907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33012,7 +33014,7 @@
         <v>45979.73390046296</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33069,7 +33071,7 @@
         <v>45712</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33126,7 +33128,7 @@
         <v>45685</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33188,7 +33190,7 @@
         <v>45978.53459490741</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33250,7 +33252,7 @@
         <v>44928</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33307,7 +33309,7 @@
         <v>46020.4169212963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33364,7 +33366,7 @@
         <v>46020.49924768518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33421,7 +33423,7 @@
         <v>45979.74055555555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -33478,7 +33480,7 @@
         <v>45981.34545138889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33535,7 +33537,7 @@
         <v>45981.53217592592</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33592,7 +33594,7 @@
         <v>44946</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33649,7 +33651,7 @@
         <v>45236.65784722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33711,7 +33713,7 @@
         <v>45560.67542824074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33768,7 +33770,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33825,7 +33827,7 @@
         <v>45981.34583333333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33882,7 +33884,7 @@
         <v>45980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33939,7 +33941,7 @@
         <v>45985.60774305555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33996,7 +33998,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34058,7 +34060,7 @@
         <v>45982.44869212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34115,7 +34117,7 @@
         <v>45981.88722222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34172,7 +34174,7 @@
         <v>45729.45119212963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34234,7 +34236,7 @@
         <v>44270</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34296,7 +34298,7 @@
         <v>45385</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34353,7 +34355,7 @@
         <v>45987.63885416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34410,7 +34412,7 @@
         <v>46029.43557870371</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -34472,7 +34474,7 @@
         <v>45987.46554398148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34529,7 +34531,7 @@
         <v>45987.49034722222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34586,7 +34588,7 @@
         <v>45604.54693287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34643,7 +34645,7 @@
         <v>45645.449375</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34705,7 +34707,7 @@
         <v>44628</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34762,7 +34764,7 @@
         <v>45575.40700231482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34824,7 +34826,7 @@
         <v>45989.44711805556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34881,7 +34883,7 @@
         <v>45772.56753472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34938,7 +34940,7 @@
         <v>45987.81232638889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34995,7 +34997,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35052,7 +35054,7 @@
         <v>44456</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35109,7 +35111,7 @@
         <v>45988.55300925926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35166,7 +35168,7 @@
         <v>45560.66037037037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35223,7 +35225,7 @@
         <v>45992.64878472222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35280,7 +35282,7 @@
         <v>45604.48304398148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35337,7 +35339,7 @@
         <v>45992.48541666667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35394,7 +35396,7 @@
         <v>45992.43616898148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35451,7 +35453,7 @@
         <v>45992.44748842593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35508,7 +35510,7 @@
         <v>45401.49065972222</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35565,7 +35567,7 @@
         <v>46034.45974537037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35622,7 +35624,7 @@
         <v>45734.62666666666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35679,7 +35681,7 @@
         <v>45614.70510416666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35741,7 +35743,7 @@
         <v>45091.31304398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35798,7 +35800,7 @@
         <v>45091.31530092593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35855,7 +35857,7 @@
         <v>44644</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35917,7 +35919,7 @@
         <v>44251</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35974,7 +35976,7 @@
         <v>46037.42578703703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36031,7 +36033,7 @@
         <v>45548.53193287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36088,7 +36090,7 @@
         <v>46036.3758912037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36145,7 +36147,7 @@
         <v>45995.3990162037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36202,7 +36204,7 @@
         <v>45995.57738425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36259,7 +36261,7 @@
         <v>45636</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36316,7 +36318,7 @@
         <v>45996.33314814815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -36373,7 +36375,7 @@
         <v>45999</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36430,7 +36432,7 @@
         <v>45439.30988425926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36487,7 +36489,7 @@
         <v>45000</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36549,7 +36551,7 @@
         <v>45999.39971064815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36606,7 +36608,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36663,7 +36665,7 @@
         <v>45595</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36720,7 +36722,7 @@
         <v>44637</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36777,7 +36779,7 @@
         <v>46038.66943287037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36834,7 +36836,7 @@
         <v>45455.44194444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36891,7 +36893,7 @@
         <v>45931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36968,7 +36970,7 @@
         <v>45931</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37025,7 +37027,7 @@
         <v>44538</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37082,7 +37084,7 @@
         <v>45999.89533564815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37139,7 +37141,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37196,7 +37198,7 @@
         <v>45616</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37253,7 +37255,7 @@
         <v>44977</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37315,7 +37317,7 @@
         <v>45586.48003472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37372,7 +37374,7 @@
         <v>44309</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37429,7 +37431,7 @@
         <v>46042.37641203704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37491,7 +37493,7 @@
         <v>46001.39805555555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37548,7 +37550,7 @@
         <v>44946</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37605,7 +37607,7 @@
         <v>45244</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37667,7 +37669,7 @@
         <v>45999.87188657407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37724,7 +37726,7 @@
         <v>45219.57061342592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37781,7 +37783,7 @@
         <v>45401.49361111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37838,7 +37840,7 @@
         <v>45387</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37895,7 +37897,7 @@
         <v>44552</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37952,7 +37954,7 @@
         <v>46003.64273148148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38009,7 +38011,7 @@
         <v>46007.63630787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38066,7 +38068,7 @@
         <v>46006.58048611111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38123,7 +38125,7 @@
         <v>46006.61553240741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38180,7 +38182,7 @@
         <v>46006.54729166667</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38237,7 +38239,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38294,7 +38296,7 @@
         <v>46006</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38351,7 +38353,7 @@
         <v>46007.61498842593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38408,7 +38410,7 @@
         <v>46007.61506944444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38470,7 +38472,7 @@
         <v>46006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38527,7 +38529,7 @@
         <v>46006.5666087963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38584,7 +38586,7 @@
         <v>46007.63618055556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38641,7 +38643,7 @@
         <v>44783</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38698,7 +38700,7 @@
         <v>46009.59424768519</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38755,7 +38757,7 @@
         <v>45518.59618055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38812,7 +38814,7 @@
         <v>45548.6934837963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38869,7 +38871,7 @@
         <v>46052.41568287037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38926,7 +38928,7 @@
         <v>46054.81873842593</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38983,7 +38985,7 @@
         <v>46013.42751157407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39040,7 +39042,7 @@
         <v>44598.64403935185</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39097,7 +39099,7 @@
         <v>45355</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39154,7 +39156,7 @@
         <v>46010.49605324074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39216,7 +39218,7 @@
         <v>45712</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39273,7 +39275,7 @@
         <v>46055.43142361111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39330,7 +39332,7 @@
         <v>45945</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39387,7 +39389,7 @@
         <v>45922</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39444,7 +39446,7 @@
         <v>44781</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39501,7 +39503,7 @@
         <v>44946</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39558,7 +39560,7 @@
         <v>45908</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39615,7 +39617,7 @@
         <v>45999</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39677,7 +39679,7 @@
         <v>45968</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39739,7 +39741,7 @@
         <v>45985</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39801,7 +39803,7 @@
         <v>45992</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39863,7 +39865,7 @@
         <v>46048</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39925,7 +39927,7 @@
         <v>44252</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39982,7 +39984,7 @@
         <v>44893</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40044,7 +40046,7 @@
         <v>44917</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40101,7 +40103,7 @@
         <v>45391</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40158,7 +40160,7 @@
         <v>45187</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40215,7 +40217,7 @@
         <v>45981.59471064815</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40272,7 +40274,7 @@
         <v>44419</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40329,7 +40331,7 @@
         <v>46050</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40386,7 +40388,7 @@
         <v>46058.34428240741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40443,7 +40445,7 @@
         <v>46058.64458333333</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40505,7 +40507,7 @@
         <v>44970</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40562,7 +40564,7 @@
         <v>45574.51212962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40619,7 +40621,7 @@
         <v>45184.36697916667</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40681,7 +40683,7 @@
         <v>45184</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40738,7 +40740,7 @@
         <v>44874</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40800,7 +40802,7 @@
         <v>44905</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40857,7 +40859,7 @@
         <v>44830</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40919,7 +40921,7 @@
         <v>44874.48167824074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40976,7 +40978,7 @@
         <v>44883.36125</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41038,7 +41040,7 @@
         <v>44334</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41095,7 +41097,7 @@
         <v>45126</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41157,7 +41159,7 @@
         <v>44496</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41219,7 +41221,7 @@
         <v>45482.53859953704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41276,7 +41278,7 @@
         <v>45685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41338,7 +41340,7 @@
         <v>44967</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41395,7 +41397,7 @@
         <v>45568.55114583333</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41457,7 +41459,7 @@
         <v>45385</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41514,7 +41516,7 @@
         <v>45586</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41571,7 +41573,7 @@
         <v>44803</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41628,7 +41630,7 @@
         <v>45545.59842592593</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41685,7 +41687,7 @@
         <v>45261.46787037037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41742,7 +41744,7 @@
         <v>45261.47321759259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41799,7 +41801,7 @@
         <v>44490</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41856,7 +41858,7 @@
         <v>44482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41913,7 +41915,7 @@
         <v>44419</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41970,7 +41972,7 @@
         <v>45296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42032,7 +42034,7 @@
         <v>45264</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42089,7 +42091,7 @@
         <v>44946</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42146,7 +42148,7 @@
         <v>44498</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42203,7 +42205,7 @@
         <v>44498</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42260,7 +42262,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42322,7 +42324,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42379,7 +42381,7 @@
         <v>45576</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42436,7 +42438,7 @@
         <v>44930</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42493,7 +42495,7 @@
         <v>45631.43578703704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42550,7 +42552,7 @@
         <v>45616</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42607,7 +42609,7 @@
         <v>45159</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42664,7 +42666,7 @@
         <v>45150</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42721,7 +42723,7 @@
         <v>44406</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42778,7 +42780,7 @@
         <v>45714.68869212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42835,7 +42837,7 @@
         <v>45576.37496527778</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42892,7 +42894,7 @@
         <v>44323</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42949,7 +42951,7 @@
         <v>44357</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43006,7 +43008,7 @@
         <v>45303.93322916667</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43068,7 +43070,7 @@
         <v>44496</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43130,7 +43132,7 @@
         <v>44910</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43187,7 +43189,7 @@
         <v>44489</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43244,7 +43246,7 @@
         <v>44893.48930555556</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43306,7 +43308,7 @@
         <v>45693.60425925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43363,7 +43365,7 @@
         <v>44351</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43420,7 +43422,7 @@
         <v>45740.65851851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43477,7 +43479,7 @@
         <v>45519.4495949074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43534,7 +43536,7 @@
         <v>44998</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43591,7 +43593,7 @@
         <v>45636</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43648,7 +43650,7 @@
         <v>45450.7033912037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43705,7 +43707,7 @@
         <v>45246.34405092592</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43762,7 +43764,7 @@
         <v>44859</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43819,7 +43821,7 @@
         <v>44552</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43876,7 +43878,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43933,7 +43935,7 @@
         <v>45491.43815972222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43990,7 +43992,7 @@
         <v>44301</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44052,7 +44054,7 @@
         <v>44784</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44109,7 +44111,7 @@
         <v>45595</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44166,7 +44168,7 @@
         <v>45098</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44223,7 +44225,7 @@
         <v>44834</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44285,7 +44287,7 @@
         <v>44851</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44342,7 +44344,7 @@
         <v>45254.96476851852</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -44399,7 +44401,7 @@
         <v>45439</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44456,7 +44458,7 @@
         <v>45560.67016203704</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44513,7 +44515,7 @@
         <v>45243.66828703704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44570,7 +44572,7 @@
         <v>44998</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44627,7 +44629,7 @@
         <v>44540</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44684,7 +44686,7 @@
         <v>45225</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44741,7 +44743,7 @@
         <v>45233.35863425926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44798,7 +44800,7 @@
         <v>44946.5500925926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44855,7 +44857,7 @@
         <v>45562.56747685185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44917,7 +44919,7 @@
         <v>44379</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44974,7 +44976,7 @@
         <v>44498</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45031,7 +45033,7 @@
         <v>45261</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45088,7 +45090,7 @@
         <v>44531</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45145,7 +45147,7 @@
         <v>44911.32092592592</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45202,7 +45204,7 @@
         <v>45629.35856481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45259,7 +45261,7 @@
         <v>44998.72263888889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45316,7 +45318,7 @@
         <v>45749.4075</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -45373,7 +45375,7 @@
         <v>45254</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45430,7 +45432,7 @@
         <v>45779.41253472222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45487,7 +45489,7 @@
         <v>45779.43696759259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45544,7 +45546,7 @@
         <v>45582</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45601,7 +45603,7 @@
         <v>45595</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45658,7 +45660,7 @@
         <v>44495</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -575,7 +575,7 @@
         <v>45932.45949074074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45184</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45580.34505787037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45895.43939814815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45749</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>44278</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45169.34751157407</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44984</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45596.42497685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>45804.6678587963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45516</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44515</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44998</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44883.49158564815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44887</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45835.42688657407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>45688</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>45697.72040509259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45749</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44278</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>45874.63766203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45572</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45884.53554398148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>45978.51783564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>44316</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45755</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>45755</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>46010.65328703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45170</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45565</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44843.82278935185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45670</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>45813</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>46013.42751157407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44743</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44316</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44510</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44316</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45614</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45754</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45455.46412037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>46010.42215277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>46057</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45586</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45931</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44984</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44370</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45754</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>45670</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45940.5108912037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45952.71653935185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>45967.57096064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>44778.55710648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44894</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44278</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45688</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45881.54024305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45485</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45980.45195601852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44843.84256944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>45835.4641087963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45688</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>45485</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45565</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45366</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44271</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>44278</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45931</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>46007.65723379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>46010.68505787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45771.634375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44637</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44309</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45988.55412037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>46006.62581018519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>46008.34428240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45630</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45072</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44904</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45055</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44278</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45072</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45151</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44701</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45895</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44637</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45167</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45447</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45366</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44900</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45975.48099537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45931</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>46007.61512731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45609.69825231482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45965</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>45006</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44547</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45789.53834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45250</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44712</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45072</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44690</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45835.48488425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45337</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44904</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>45868.6211574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45875.69826388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45898</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45231</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44716</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45931</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44512</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44781</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44957</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44964</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44946</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44466.34178240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44315.68802083333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44265</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44315.68729166667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45351</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45264</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44306</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44271</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45784.58445601852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44637</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45575.63767361111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45610.4809375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>44395</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45614.55241898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44265</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45972.49988425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45749</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>44680</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>46048.52958333334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>44781</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44957</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>46062.67063657408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>46056.51855324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44559</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>46057.55797453703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44984</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45793.58469907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44280</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44532</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44516</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44271</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44398</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44686.48277777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44267</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44495</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44461</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44841</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44524</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44326</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44256</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44855</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44502</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44544.72591435185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44544</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44395</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44834</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44357</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44278.51930555556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44487</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44294</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44789</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44578</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44305</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44700</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44700</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44502</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>44784</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>44538.62987268518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>44739.4490162037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44536.94172453704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44536.94177083333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44729</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44909</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44719.56572916666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44278</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44942</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45518.57418981481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45041.48034722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44369</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>45560.64059027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44419</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44550</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44531</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44984.60255787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45051</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44719.5662037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45305</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44529</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>44515</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45621.40034722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45576.66674768519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44908</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44894.47856481482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45226</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45190</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44484</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44998</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45208</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45246.92542824074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45713</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45232</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45639.57988425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45296.43614583334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44789</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45022</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45037.35443287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45604.49045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44903</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45435.7403125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44284</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45376.58467592593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45586.5008912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44818</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44894.59936342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45159</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45610.38560185185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45041</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>45084.47790509259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44306</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45568.44303240741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45232</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44998.75266203703</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45281</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45266.59711805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45385.46263888889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45246</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45548.53166666667</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>45595</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44510</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44257</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45263</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44690</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45225.6890625</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44998.73545138889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44998.74140046296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45579.67354166666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44322</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45257.64270833333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44998.73143518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45149.42868055555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45947.62087962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45134</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44960</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44948.98751157407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45184.35760416667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44349</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45575.64982638889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45915.69837962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45912.49256944445</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45912.49289351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45596</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45888.72116898148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45912.49420138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45586.50180555556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45666</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45688</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45849</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>45849</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>45849</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45849.33071759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45849</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>45916.54578703704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45917.53284722222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45917.56306712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45917.58569444445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45219</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45219</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45922.69826388889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45964.60839120371</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44935.66199074074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45923.57418981481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45922.719375</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45863.60643518518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45863.61373842593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44854.46388888889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>45924</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45890.40737268519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44351</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45849</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45184.37474537037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45232.47815972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44942.69005787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45931</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45874.63773148148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45875</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45786</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45813</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45875</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45786</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45875</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45898</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>45875</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>45933.44865740741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44946.56012731481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45876.40699074074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45485</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45462</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45231.54160879629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45925.65625</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45925.66126157407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>45685.44300925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45485</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45463</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>45936.44934027778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45883.43145833333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44998.72736111111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45939.48998842593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45693.60480324074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>45244.64202546296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>45939.53186342592</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45772.57789351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45939.36626157408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45621.38193287037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45943.65641203704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45945.39144675926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44570</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45415</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45575.5909837963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>45127</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>45714</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>45386</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45254</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45559</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44998.60261574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44510</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45695</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45616</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45952.39850694445</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>44896</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45748</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45957.64819444445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45575.59709490741</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45435.71126157408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45954.66291666667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45699.36491898148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45957.6437037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45582</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45954.65774305556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45954.65364583334</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45954.66020833333</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45958.49030092593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44354</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45159.61971064815</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45958.46826388889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>46000.45017361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>45958.46806712963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45961.38105324074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>44482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>45159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45218</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44631</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>45961.39340277778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44491</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45964.47275462963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45964.46167824074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45964.47177083333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45964.47564814815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>45712</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45685</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>45964.59420138889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45965.51078703703</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45965.51081018519</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45965.70755787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45964.59214120371</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45966.66451388889</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>44928</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44946</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45967.43244212963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45236.65784722222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45966.68252314815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45560.67542824074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44498</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45971.46915509259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45971.42776620371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45971.4482175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45971.46741898148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45971.46951388889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45729.45119212963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45973.67434027778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45975.42577546297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45975.57423611111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45974.46935185185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>44270</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45385</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45975.49930555555</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45974.469375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45975.52893518518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45979.73390046296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45978.53459490741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45604.54693287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45645.449375</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45979.74055555555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>44628</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45981.34545138889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45575.40700231482</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45981.53217592592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45772.56753472222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>44917</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45981.34583333333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>44456</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45985.60774305555</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>45560.66037037037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>45982.44869212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45981.88722222222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>45604.48304398148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>45987.63885416667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45401.49065972222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45987.46554398148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45987.49034722222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45734.62666666666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45614.70510416666</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>45989.44711805556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>45091.31304398148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45091.31530092593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44644</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45987.81232638889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45988.55300925926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44251</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>45548.53193287037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>45992.64878472222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45636</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>45992.48541666667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45992.43616898148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>45992.44748842593</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>46034.45974537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45439.30988425926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45000</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>46037.42578703703</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>46036.3758912037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         <v>45995.3990162037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>45995.57738425926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>44322</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45595</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>44637</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>45996.33314814815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45455.44194444444</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>45999</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45999.39971064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44538</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45034</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>45616</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44977</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>46038.66943287037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45586.48003472222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44309</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45931</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45931</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>44946</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36286,7 +36286,7 @@
         <v>45244</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45999.89533564815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>46042.37641203704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45219.57061342592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>46001.39805555555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45401.49361111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>45999.87188657407</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>44552</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44784</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>46003.64273148148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>46007.63630787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>46006.58048611111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>46006.61553240741</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>46006.54729166667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>46007.61498842593</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>46007.61506944444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>46006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>46006.5666087963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>46007.63618055556</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>44783</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45518.59618055556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45548.6934837963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>46009.59424768519</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>44598.64403935185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>45355</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45712</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>46052.41568287037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>46054.81873842593</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44781</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44946</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>46010.49605324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38073,7 +38073,7 @@
         <v>46055.43142361111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>44252</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>44893</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44917</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45945</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45922</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45391</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45908</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45999</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45187</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45968</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>45985</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>45992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>46048</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>44419</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>45981.59471064815</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>46050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>46058.34428240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39129,7 +39129,7 @@
         <v>44970</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45574.51212962963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39243,7 +39243,7 @@
         <v>46058.64458333333</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>45184.36697916667</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39367,7 +39367,7 @@
         <v>46020.4169212963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39424,7 +39424,7 @@
         <v>44874</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39486,7 +39486,7 @@
         <v>44905</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44830</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44874.48167824074</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39662,7 +39662,7 @@
         <v>46020.48969907407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39719,7 +39719,7 @@
         <v>46020.49924768518</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         <v>44883.36125</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39838,7 +39838,7 @@
         <v>44334</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>45126</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>45482.53859953704</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>45685</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44967</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44278</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45568.55114583333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45726</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45385</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44803</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45545.59842592593</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>46070.44868055556</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45261.46787037037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45261.47321759259</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45800</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>46066</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>46029.43557870371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45891</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40951,7 +40951,7 @@
         <v>46070.43201388889</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>46070.6487037037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>45891</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>44490</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>45387</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46070.4453125</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>45184</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>45736</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>45736</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45888</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>44482</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41603,7 +41603,7 @@
         <v>46072.56284722222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>44419</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>45296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>44706</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45264</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>44946</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44498</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44498</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42069,7 +42069,7 @@
         <v>45583.53219907408</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44908</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45576</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>44930</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45631.43578703704</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45616</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45159</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42473,7 +42473,7 @@
         <v>45150</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42530,7 +42530,7 @@
         <v>44406</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42587,7 +42587,7 @@
         <v>45714.68869212963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42644,7 +42644,7 @@
         <v>45576.37496527778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42701,7 +42701,7 @@
         <v>44323</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42758,7 +42758,7 @@
         <v>44357</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>45303.93322916667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44496</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44910</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>44489</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>44893.48930555556</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>45693.60425925926</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43172,7 +43172,7 @@
         <v>44351</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43229,7 +43229,7 @@
         <v>45740.65851851852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43286,7 +43286,7 @@
         <v>45519.4495949074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43343,7 +43343,7 @@
         <v>44998</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43400,7 +43400,7 @@
         <v>45636</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43457,7 +43457,7 @@
         <v>45450.7033912037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>45246.34405092592</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44859</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44552</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44936</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45491.43815972222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44301</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44784</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>45595</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>45098</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>44834</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44851</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>45254.96476851852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44208,7 +44208,7 @@
         <v>45439</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44265,7 +44265,7 @@
         <v>45560.67016203704</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44322,7 +44322,7 @@
         <v>45243.66828703704</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>44998</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>44540</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>45225</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44550,7 +44550,7 @@
         <v>45233.35863425926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44607,7 +44607,7 @@
         <v>44946.5500925926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44664,7 +44664,7 @@
         <v>45562.56747685185</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44726,7 +44726,7 @@
         <v>44379</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44783,7 +44783,7 @@
         <v>44498</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>45261</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>44531</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44954,7 +44954,7 @@
         <v>44911.32092592592</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         <v>45629.35856481481</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45068,7 +45068,7 @@
         <v>44998.72263888889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         <v>45749.4075</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45182,7 +45182,7 @@
         <v>45254</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>45779.41253472222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>45779.43696759259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>45582</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>45595</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>44495</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>45800.48087962963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>45800.4615625</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45800.46927083333</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>44371</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         <v>45579.91509259259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45809,7 +45809,7 @@
         <v>44958</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
